--- a/记录.xlsx
+++ b/记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>oop</t>
   </si>
@@ -42,7 +42,25 @@
     <t>gzga_nbzd</t>
   </si>
   <si>
+    <t>VUE_APP_URL=http://192.168.0.111:18889</t>
+  </si>
+  <si>
     <t>GZNBZD_^2020</t>
+  </si>
+  <si>
+    <t>VUE_APP_FILE=https://zh.hnlanzuo.com:8082</t>
+  </si>
+  <si>
+    <t>VUE_APP_WEBSOCKER = ws://192.168.0.111:18889</t>
+  </si>
+  <si>
+    <t>VUE_APP_URL=https://zh.hnlanzuo.com:83</t>
+  </si>
+  <si>
+    <t>VUE_APP_FILE=https://zh.hnlanzuo.com:81</t>
+  </si>
+  <si>
+    <t>VUE_APP_WEBSOCKER = wss://zh.hnlanzuo.com:83</t>
   </si>
 </sst>
 </file>
@@ -50,8 +68,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -65,6 +83,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -72,14 +105,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,7 +135,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,9 +158,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,22 +211,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,68 +220,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,37 +235,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,145 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,29 +431,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +483,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -485,26 +507,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +546,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,15 +1028,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G13" sqref="G13:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1051,17 +1070,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="5:5">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>oop</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>VUE_APP_WEBSOCKER = wss://zh.hnlanzuo.com:83</t>
+  </si>
+  <si>
+    <t>VUE_APP_URL=https://gznbzh.gzjd.gov.cn:83</t>
+  </si>
+  <si>
+    <t>VUE_APP_FILE=https://gznbzh.gzjd.gov.cn/zhimg</t>
+  </si>
+  <si>
+    <t>VUE_APP_WEBSOCKER=wss://gznbzh.gzjd.gov.cn:83</t>
   </si>
 </sst>
 </file>
@@ -68,9 +77,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -83,7 +92,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,61 +120,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +144,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +160,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,13 +207,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -235,19 +244,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,13 +394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,145 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +458,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,30 +510,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -526,6 +526,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -534,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,14 +1037,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="7" max="7" width="48.5" customWidth="1"/>
   </cols>
@@ -1107,6 +1117,21 @@
     <row r="15" spans="7:7">
       <c r="G15" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>oop</t>
   </si>
@@ -45,6 +45,9 @@
     <t>VUE_APP_URL=http://192.168.0.111:18889</t>
   </si>
   <si>
+    <t>《Java8 实战》</t>
+  </si>
+  <si>
     <t>GZNBZD_^2020</t>
   </si>
   <si>
@@ -70,6 +73,12 @@
   </si>
   <si>
     <t>VUE_APP_WEBSOCKER=wss://gznbzh.gzjd.gov.cn:83</t>
+  </si>
+  <si>
+    <t>PL_CodeItems  字典管理表    实体缺少字段</t>
+  </si>
+  <si>
+    <t>disable</t>
   </si>
 </sst>
 </file>
@@ -78,11 +87,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,15 +100,81 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,16 +188,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,83 +235,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,31 +265,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,151 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,15 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,6 +475,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -473,21 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +515,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,139 +576,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
@@ -1091,47 +1118,58 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" ht="15.75" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="7:7">
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="7:7">
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8">
+      <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
